--- a/APM files/141027851/Book1.xlsx
+++ b/APM files/141027851/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F74FB1-9ED4-A145-87E5-E52A66D34068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645D2AC-726A-CF47-B3DF-75A0104434E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{4CD497DC-7C27-B246-BE54-C2FD0AE44095}"/>
+    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{FFCBB8DA-01C4-7745-A5C3-9FA8ED411E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C18A292-99C1-3641-8723-292C135D95DC}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA809D60-903E-7443-B501-805DF83D8E6F}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,82 +425,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>117681530</v>
+        <v>117681523</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>117681539</v>
+        <v>117681543</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>117681527</v>
+        <v>117681536</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>117681528</v>
+        <v>117681535</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>117680997</v>
+        <v>117681544</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>117681524</v>
+        <v>117681520</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>117681538</v>
+        <v>117681521</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>117681542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>117681526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>117681537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>117681541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>117681525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>117681545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>117681519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>117681547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>117681533</v>
+        <v>117681532</v>
       </c>
     </row>
   </sheetData>
